--- a/hardware/tone_block/tone_block_bom.xlsx
+++ b/hardware/tone_block/tone_block_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/dev/cycfi/xr_spectra/hardware/tone_block/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB42CA4B-F607-DA48-8C72-45EB14F454D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E79CA8-13B0-DD42-AF0C-40AAB48F60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="720" windowWidth="20520" windowHeight="12300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36360" yWindow="280" windowWidth="24460" windowHeight="15380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tone_block" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{605417B9-9499-784D-BBA8-A2D13173EB73}" name="tone_block_bom" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/joel/dev/cycfi/xr_spectra/hardware/tone_block/tone_block_bom.csv" semicolon="1">
+    <textPr sourceFile="/Users/joel/dev/cycfi/xr_spectra/hardware/tone_block/tone_block_bom.csv" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -45,7 +45,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{C8E03638-6161-D74B-8270-4B94E9635595}" name="tone_block_bom1" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/joel/dev/cycfi/xr_spectra/hardware/tone_block/tone_block_bom.csv" tab="0" semicolon="1">
+    <textPr sourceFile="/Users/joel/dev/cycfi/xr_spectra/hardware/tone_block/tone_block_bom.csv" tab="0" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -232,11 +232,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tone_block_bom_1" connectionId="2" xr16:uid="{4F708C19-AA50-D54B-A688-0479F5474332}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tone_block_bom" connectionId="1" xr16:uid="{ED05BE48-5B2A-6945-B7F8-CEA6FBE8FA9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tone_block_bom" connectionId="1" xr16:uid="{ED05BE48-5B2A-6945-B7F8-CEA6FBE8FA9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tone_block_bom_1" connectionId="2" xr16:uid="{4F708C19-AA50-D54B-A688-0479F5474332}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
